--- a/amazon_ad/ad.xlsx
+++ b/amazon_ad/ad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="21000" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>客户提供文档</t>
   </si>
@@ -31,19 +31,6 @@
 折后价：6.59
 开始时间：2020.11.06   22：00
 结束时间：2020.11.08   15:00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/dp/B07ZCVC6JC?ref=myi_title_dp
-产品名称：
-20inch Passion Twist Hair Water Wave Crochet Braids
-折扣：NVV77FVP
-42 off
-原价：34
-折后价：19.72
-开始时间：
-11.06
-结束时间：
-11.10</t>
   </si>
   <si>
     <t>URL: https://www.amazon.com/dp/B07ZCVC6JC
@@ -70,6 +57,19 @@
 Discount: 50% off 
 Start Date : 2020-11-7  00:01PST
 End Date : 2020-11-10  23:59PST</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07ZCVC6JC?ref=myi_title_dp
+产品名称：
+20inch Passion Twist Hair Water Wave Crochet Braids
+折扣：NVV77FVP
+42 off
+原价：34
+折后价：19.72
+开始时间：
+11.06
+结束时间：
+11.10</t>
   </si>
   <si>
     <t>URL: https://www.amazon.com/dp/B08FFHL133?ref=myi_title_dp
@@ -132,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -147,6 +147,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,43 +184,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,8 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,17 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,6 +244,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -284,7 +268,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,13 +299,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,19 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,133 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,41 +490,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,6 +504,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,6 +551,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -598,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,142 +610,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1098,10 +1095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="120" customHeight="1" outlineLevelCol="1"/>
@@ -1132,65 +1129,53 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="1:2">
+    <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="12" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
